--- a/partTimePossible.xlsx
+++ b/partTimePossible.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94578773-5B95-4832-9687-1615FD8B4715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CE1C1-3980-40AF-A262-5B5342C00903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{18142435-258A-4425-9C2E-9338E8907FAA}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="2" xr2:uid="{18142435-258A-4425-9C2E-9338E8907FAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Classes" sheetId="1" r:id="rId1"/>
+    <sheet name="Stuff Needed" sheetId="2" r:id="rId2"/>
+    <sheet name="procon" sheetId="3" r:id="rId3"/>
+    <sheet name="$$$" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>tot</t>
   </si>
@@ -40,7 +43,94 @@
     <t>gen</t>
   </si>
   <si>
-    <t>chen</t>
+    <t># classes</t>
+  </si>
+  <si>
+    <t># credits</t>
+  </si>
+  <si>
+    <t>ch en</t>
+  </si>
+  <si>
+    <t>renew car reg</t>
+  </si>
+  <si>
+    <t>car reg</t>
+  </si>
+  <si>
+    <t>increase insurance</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>garments</t>
+  </si>
+  <si>
+    <t>increase rent</t>
+  </si>
+  <si>
+    <t>camera equipment</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>spend time doing what I like to do</t>
+  </si>
+  <si>
+    <t>more experience faster</t>
+  </si>
+  <si>
+    <t>less financial stress/financial stability</t>
+  </si>
+  <si>
+    <t>more resources to invest in TJP</t>
+  </si>
+  <si>
+    <t>start paying off cc</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>take longer to graduate</t>
+  </si>
+  <si>
+    <t>higher pay</t>
+  </si>
+  <si>
+    <t>lower pay than if I graduate sooner*</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>2 extra "busy" years</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>$/month</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>experience is more valuable than time in school</t>
+  </si>
+  <si>
+    <t>its not lik NL because I would be studying only part time</t>
   </si>
 </sst>
 </file>
@@ -76,8 +166,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211B583E-B558-426B-81BE-EF716BA41013}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -408,29 +501,238 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <f>A3-B3</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f>A7-B7</f>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F19951-F736-4837-87E6-A6346AC07729}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="16.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEF2953-160D-4AA7-A36C-6B36B00D2366}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="46.40625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.31640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B369DB-CB22-4DFE-BF06-69E03B207CBD}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2">
-        <v>56</v>
+        <f>1405+1700</f>
+        <v>3105</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>8000</v>
       </c>
       <c r="C2">
-        <f>A2-B2</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B3">
-        <f>B2/3</f>
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <f>C2/4</f>
-        <v>9.5</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <f>A2-1200</f>
+        <v>1905</v>
       </c>
     </row>
   </sheetData>

--- a/partTimePossible.xlsx
+++ b/partTimePossible.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CE1C1-3980-40AF-A262-5B5342C00903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464EBDBF-B679-42AA-838A-5BA6BAC77533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="2" xr2:uid="{18142435-258A-4425-9C2E-9338E8907FAA}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="3" xr2:uid="{18142435-258A-4425-9C2E-9338E8907FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
     <sheet name="Stuff Needed" sheetId="2" r:id="rId2"/>
     <sheet name="procon" sheetId="3" r:id="rId3"/>
-    <sheet name="$$$" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="$$$" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>tot</t>
   </si>
@@ -131,6 +132,30 @@
   </si>
   <si>
     <t>its not lik NL because I would be studying only part time</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>ven</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>usaa</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -608,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEF2953-160D-4AA7-A36C-6B36B00D2366}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A18"/>
     </sheetView>
   </sheetViews>
@@ -686,6 +711,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD43630-F633-4BC3-8181-B88F19AE6F3E}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>887.51</v>
+      </c>
+      <c r="D2">
+        <v>2517.2399999999998</v>
+      </c>
+      <c r="G2" t="e">
+        <f>AVERAGE(B10:D10)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>92.13</v>
+      </c>
+      <c r="C5">
+        <v>245.42</v>
+      </c>
+      <c r="D5">
+        <v>536.19000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <f>1149.14-B3-B6</f>
+        <v>1149.1400000000001</v>
+      </c>
+      <c r="C8">
+        <v>1270.7</v>
+      </c>
+      <c r="D8">
+        <v>1254.4100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="e">
+        <f>SUM(#REF!,#REF!,B8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" t="e">
+        <f>SUM(#REF!,#REF!,C8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" t="e">
+        <f>SUM(#REF!,#REF!,D8)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B369DB-CB22-4DFE-BF06-69E03B207CBD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
